--- a/CTG/KQKD.xlsx
+++ b/CTG/KQKD.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BM31"/>
+  <dimension ref="A1:BN31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -759,6 +759,11 @@
           <t>Q1/2025</t>
         </is>
       </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>Q2/2025</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1086,6 +1091,11 @@
           <t>01/01-31/03</t>
         </is>
       </c>
+      <c r="BN2" t="inlineStr">
+        <is>
+          <t>01/04-30/06</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1413,6 +1423,11 @@
           <t>Hợp nhất</t>
         </is>
       </c>
+      <c r="BN3" t="inlineStr">
+        <is>
+          <t>Hợp nhất</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1736,6 +1751,11 @@
         </is>
       </c>
       <c r="BM4" t="inlineStr">
+        <is>
+          <t>Chưa kiểm toán</t>
+        </is>
+      </c>
+      <c r="BN4" t="inlineStr">
         <is>
           <t>Chưa kiểm toán</t>
         </is>
@@ -1811,6 +1831,7 @@
       <c r="BK5" t="inlineStr"/>
       <c r="BL5" t="inlineStr"/>
       <c r="BM5" t="inlineStr"/>
+      <c r="BN5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1882,6 +1903,7 @@
       <c r="BK6" t="inlineStr"/>
       <c r="BL6" t="inlineStr"/>
       <c r="BM6" t="inlineStr"/>
+      <c r="BN6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr"/>
@@ -1949,6 +1971,7 @@
       <c r="BK7" t="inlineStr"/>
       <c r="BL7" t="inlineStr"/>
       <c r="BM7" t="inlineStr"/>
+      <c r="BN7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2276,6 +2299,11 @@
           <t>32684</t>
         </is>
       </c>
+      <c r="BN8" t="inlineStr">
+        <is>
+          <t>34876</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2603,6 +2631,11 @@
           <t>17209</t>
         </is>
       </c>
+      <c r="BN9" t="inlineStr">
+        <is>
+          <t>19034</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2930,6 +2963,11 @@
           <t>15475</t>
         </is>
       </c>
+      <c r="BN10" t="inlineStr">
+        <is>
+          <t>15843</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3257,6 +3295,11 @@
           <t>2875</t>
         </is>
       </c>
+      <c r="BN11" t="inlineStr">
+        <is>
+          <t>3141</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3584,6 +3627,11 @@
           <t>1264</t>
         </is>
       </c>
+      <c r="BN12" t="inlineStr">
+        <is>
+          <t>1707</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3911,6 +3959,11 @@
           <t>1611</t>
         </is>
       </c>
+      <c r="BN13" t="inlineStr">
+        <is>
+          <t>1434</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4238,6 +4291,11 @@
           <t>913</t>
         </is>
       </c>
+      <c r="BN14" t="inlineStr">
+        <is>
+          <t>1106</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4565,6 +4623,11 @@
           <t>238</t>
         </is>
       </c>
+      <c r="BN15" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4892,6 +4955,11 @@
           <t>91</t>
         </is>
       </c>
+      <c r="BN16" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -5219,6 +5287,11 @@
           <t>2241</t>
         </is>
       </c>
+      <c r="BN17" t="inlineStr">
+        <is>
+          <t>2546</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5546,6 +5619,11 @@
           <t>239</t>
         </is>
       </c>
+      <c r="BN18" t="inlineStr">
+        <is>
+          <t>372</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5873,6 +5951,11 @@
           <t>2002</t>
         </is>
       </c>
+      <c r="BN19" t="inlineStr">
+        <is>
+          <t>2173</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -6200,6 +6283,11 @@
           <t>123</t>
         </is>
       </c>
+      <c r="BN20" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -6527,6 +6615,11 @@
           <t>5519</t>
         </is>
       </c>
+      <c r="BN21" t="inlineStr">
+        <is>
+          <t>5847</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6854,6 +6947,11 @@
           <t>14934</t>
         </is>
       </c>
+      <c r="BN22" t="inlineStr">
+        <is>
+          <t>15070</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -7181,6 +7279,11 @@
           <t>8111</t>
         </is>
       </c>
+      <c r="BN23" t="inlineStr">
+        <is>
+          <t>2973</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -7508,6 +7611,11 @@
           <t>6823</t>
         </is>
       </c>
+      <c r="BN24" t="inlineStr">
+        <is>
+          <t>12097</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -7833,6 +7941,11 @@
       <c r="BM25" t="inlineStr">
         <is>
           <t>1319</t>
+        </is>
+      </c>
+      <c r="BN25" t="inlineStr">
+        <is>
+          <t>2345</t>
         </is>
       </c>
     </row>
@@ -8038,6 +8151,7 @@
           <t>4</t>
         </is>
       </c>
+      <c r="BN26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -8365,6 +8479,11 @@
           <t>1324</t>
         </is>
       </c>
+      <c r="BN27" t="inlineStr">
+        <is>
+          <t>2345</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -8692,6 +8811,11 @@
           <t>5499</t>
         </is>
       </c>
+      <c r="BN28" t="inlineStr">
+        <is>
+          <t>9752</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -9019,6 +9143,11 @@
           <t>81</t>
         </is>
       </c>
+      <c r="BN29" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -9344,6 +9473,11 @@
       <c r="BM30" t="inlineStr">
         <is>
           <t>5419</t>
+        </is>
+      </c>
+      <c r="BN30" t="inlineStr">
+        <is>
+          <t>9670</t>
         </is>
       </c>
     </row>
@@ -9469,6 +9603,7 @@
       <c r="BK31" t="inlineStr"/>
       <c r="BL31" t="inlineStr"/>
       <c r="BM31" t="inlineStr"/>
+      <c r="BN31" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/CTG/KQKD.xlsx
+++ b/CTG/KQKD.xlsx
@@ -1981,327 +1981,327 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>4706</t>
+          <t>4705822</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>4701</t>
+          <t>4701488</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>5435</t>
+          <t>5434887</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5906</t>
+          <t>5905752</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>7586</t>
+          <t>7585886</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>8505</t>
+          <t>8505279</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>9902</t>
+          <t>9901507</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>12048</t>
+          <t>12047929</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>13683</t>
+          <t>13683306</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>14867</t>
+          <t>14866762</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>15127</t>
+          <t>15126753</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>14351</t>
+          <t>14350899</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>13057</t>
+          <t>13056993</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>11410</t>
+          <t>11409797</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>11845</t>
+          <t>11844914</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>11671</t>
+          <t>11670995</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>11304</t>
+          <t>11303871</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>10791</t>
+          <t>10791495</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>10530</t>
+          <t>10529815</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>10277</t>
+          <t>10276953</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>10318</t>
+          <t>10318161</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>10286</t>
+          <t>10285783</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>10195</t>
+          <t>10194691</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>10292</t>
+          <t>10291744</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>10450</t>
+          <t>10449777</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>10976</t>
+          <t>10975775</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>10754</t>
+          <t>10754435</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>12274</t>
+          <t>12274287</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>13130</t>
+          <t>13130104</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>13940</t>
+          <t>13940446</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>13646</t>
+          <t>13645861</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>14873</t>
+          <t>14872601</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>16682</t>
+          <t>16681904</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>16218</t>
+          <t>16218202</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>17504</t>
+          <t>17504492</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>17611</t>
+          <t>17610625</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>18513</t>
+          <t>18513427</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>19206</t>
+          <t>19206080</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>18820</t>
+          <t>18819591</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>19659</t>
+          <t>19658596</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>20297</t>
+          <t>20296571</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>20873</t>
+          <t>20873022</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>21915</t>
+          <t>21914502</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
         <is>
-          <t>21512</t>
+          <t>21511509</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr">
         <is>
-          <t>20353</t>
+          <t>20352594</t>
         </is>
       </c>
       <c r="AU8" t="inlineStr">
         <is>
-          <t>20793</t>
+          <t>20793395</t>
         </is>
       </c>
       <c r="AV8" t="inlineStr">
         <is>
-          <t>21024</t>
+          <t>21024226</t>
         </is>
       </c>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>21096</t>
+          <t>21095542</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>21320</t>
+          <t>21320045</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr">
         <is>
-          <t>20679</t>
+          <t>20679386</t>
         </is>
       </c>
       <c r="AZ8" t="inlineStr">
         <is>
-          <t>21537</t>
+          <t>21536919</t>
         </is>
       </c>
       <c r="BA8" t="inlineStr">
         <is>
-          <t>22132</t>
+          <t>22132345</t>
         </is>
       </c>
       <c r="BB8" t="inlineStr">
         <is>
-          <t>25018</t>
+          <t>25018399</t>
         </is>
       </c>
       <c r="BC8" t="inlineStr">
         <is>
-          <t>27098</t>
+          <t>27097979</t>
         </is>
       </c>
       <c r="BD8" t="inlineStr">
         <is>
-          <t>30362</t>
+          <t>30361859</t>
         </is>
       </c>
       <c r="BE8" t="inlineStr">
         <is>
-          <t>32760</t>
+          <t>32760300</t>
         </is>
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>34117</t>
+          <t>34116537</t>
         </is>
       </c>
       <c r="BG8" t="inlineStr">
         <is>
-          <t>32838</t>
+          <t>32837820</t>
         </is>
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>32637</t>
+          <t>32637238</t>
         </is>
       </c>
       <c r="BI8" t="inlineStr">
         <is>
-          <t>30952</t>
+          <t>30951965</t>
         </is>
       </c>
       <c r="BJ8" t="inlineStr">
         <is>
-          <t>30138</t>
+          <t>30138279</t>
         </is>
       </c>
       <c r="BK8" t="inlineStr">
         <is>
-          <t>30924</t>
+          <t>30924362</t>
         </is>
       </c>
       <c r="BL8" t="inlineStr">
         <is>
-          <t>32435</t>
+          <t>32435002</t>
         </is>
       </c>
       <c r="BM8" t="inlineStr">
         <is>
-          <t>32684</t>
+          <t>32684212</t>
         </is>
       </c>
       <c r="BN8" t="inlineStr">
         <is>
-          <t>34876</t>
+          <t>34876403</t>
         </is>
       </c>
     </row>
@@ -2313,327 +2313,327 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3055</t>
+          <t>3055312</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2613</t>
+          <t>2613295</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2963</t>
+          <t>2963160</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3656</t>
+          <t>3656357</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4510</t>
+          <t>4509647</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>5496</t>
+          <t>5495599</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>6156</t>
+          <t>6156293</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>7847</t>
+          <t>7847004</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>8589</t>
+          <t>8588746</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>9510</t>
+          <t>9509774</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>9782</t>
+          <t>9781501</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>9992</t>
+          <t>9991873</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>8377</t>
+          <t>8376667</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>6730</t>
+          <t>6729650</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>7143</t>
+          <t>7142547</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>7025</t>
+          <t>7025177</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>6619</t>
+          <t>6619040</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>6162</t>
+          <t>6161685</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>6196</t>
+          <t>6196494</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>6053</t>
+          <t>6052723</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>5823</t>
+          <t>5823084</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>5776</t>
+          <t>5776430</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>5843</t>
+          <t>5843164</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>5599</t>
+          <t>5599318</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>5522</t>
+          <t>5521654</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>6067</t>
+          <t>6066734</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>6445</t>
+          <t>6445040</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>6897</t>
+          <t>6896688</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>7244</t>
+          <t>7243933</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>8001</t>
+          <t>8000955</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>8444</t>
+          <t>8444130</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>8707</t>
+          <t>8707077</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>9363</t>
+          <t>9362507</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>9786</t>
+          <t>9785960</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>10349</t>
+          <t>10348668</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>10377</t>
+          <t>10377052</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>11307</t>
+          <t>11306566</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>11699</t>
+          <t>11699011</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>18247</t>
+          <t>18247113</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>11709</t>
+          <t>11708960</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>12069</t>
+          <t>12069366</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>12543</t>
+          <t>12543172</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>13222</t>
+          <t>13222355</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
         <is>
-          <t>13093</t>
+          <t>13093071</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr">
         <is>
-          <t>12555</t>
+          <t>12554695</t>
         </is>
       </c>
       <c r="AU9" t="inlineStr">
         <is>
-          <t>11715</t>
+          <t>11715115</t>
         </is>
       </c>
       <c r="AV9" t="inlineStr">
         <is>
-          <t>10737</t>
+          <t>10737463</t>
         </is>
       </c>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>10453</t>
+          <t>10453406</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>10441</t>
+          <t>10441461</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr">
         <is>
-          <t>10808</t>
+          <t>10807580</t>
         </is>
       </c>
       <c r="AZ9" t="inlineStr">
         <is>
-          <t>11141</t>
+          <t>11140980</t>
         </is>
       </c>
       <c r="BA9" t="inlineStr">
         <is>
-          <t>11986</t>
+          <t>11986480</t>
         </is>
       </c>
       <c r="BB9" t="inlineStr">
         <is>
-          <t>13046</t>
+          <t>13046045</t>
         </is>
       </c>
       <c r="BC9" t="inlineStr">
         <is>
-          <t>14174</t>
+          <t>14174343</t>
         </is>
       </c>
       <c r="BD9" t="inlineStr">
         <is>
-          <t>17514</t>
+          <t>17514243</t>
         </is>
       </c>
       <c r="BE9" t="inlineStr">
         <is>
-          <t>20094</t>
+          <t>20094129</t>
         </is>
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>21359</t>
+          <t>21359067</t>
         </is>
       </c>
       <c r="BG9" t="inlineStr">
         <is>
-          <t>19750</t>
+          <t>19750383</t>
         </is>
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>18065</t>
+          <t>18065212</t>
         </is>
       </c>
       <c r="BI9" t="inlineStr">
         <is>
-          <t>15778</t>
+          <t>15777729</t>
         </is>
       </c>
       <c r="BJ9" t="inlineStr">
         <is>
-          <t>14799</t>
+          <t>14799392</t>
         </is>
       </c>
       <c r="BK9" t="inlineStr">
         <is>
-          <t>15347</t>
+          <t>15346848</t>
         </is>
       </c>
       <c r="BL9" t="inlineStr">
         <is>
-          <t>16123</t>
+          <t>16122846</t>
         </is>
       </c>
       <c r="BM9" t="inlineStr">
         <is>
-          <t>17209</t>
+          <t>17208997</t>
         </is>
       </c>
       <c r="BN9" t="inlineStr">
         <is>
-          <t>19034</t>
+          <t>19033787</t>
         </is>
       </c>
     </row>
@@ -2645,327 +2645,327 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1651</t>
+          <t>1650510</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2088</t>
+          <t>2088193</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2472</t>
+          <t>2471727</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2249</t>
+          <t>2249395</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3076</t>
+          <t>3076240</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>3010</t>
+          <t>3009681</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>3745</t>
+          <t>3745214</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>4201</t>
+          <t>4200925</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>5095</t>
+          <t>5094560</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>5357</t>
+          <t>5356987</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>5345</t>
+          <t>5345252</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>4359</t>
+          <t>4359025</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>4680</t>
+          <t>4680326</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>4680</t>
+          <t>4680148</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>4702</t>
+          <t>4702367</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>4646</t>
+          <t>4645819</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>4685</t>
+          <t>4684831</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>4630</t>
+          <t>4629810</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>4333</t>
+          <t>4333322</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>4224</t>
+          <t>4224230</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>4495</t>
+          <t>4495077</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>4509</t>
+          <t>4509353</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>4352</t>
+          <t>4351526</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>4692</t>
+          <t>4692426</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>4928</t>
+          <t>4928123</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>4909</t>
+          <t>4909041</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>4309</t>
+          <t>4309395</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>5378</t>
+          <t>5377599</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>5886</t>
+          <t>5886171</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>5939</t>
+          <t>5939491</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>5202</t>
+          <t>5201731</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>6166</t>
+          <t>6165524</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>7319</t>
+          <t>7319397</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>6432</t>
+          <t>6432242</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>7156</t>
+          <t>7155824</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>7234</t>
+          <t>7233573</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>7207</t>
+          <t>7206861</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>7507</t>
+          <t>7507069</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>572</t>
+          <t>572478</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>7950</t>
+          <t>7949636</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>8227</t>
+          <t>8227205</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>8330</t>
+          <t>8329850</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>8692</t>
+          <t>8692147</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
         <is>
-          <t>8418</t>
+          <t>8418438</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr">
         <is>
-          <t>7798</t>
+          <t>7797899</t>
         </is>
       </c>
       <c r="AU10" t="inlineStr">
         <is>
-          <t>9078</t>
+          <t>9078280</t>
         </is>
       </c>
       <c r="AV10" t="inlineStr">
         <is>
-          <t>10287</t>
+          <t>10286763</t>
         </is>
       </c>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>10642</t>
+          <t>10642136</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>10879</t>
+          <t>10878584</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr">
         <is>
-          <t>9872</t>
+          <t>9871806</t>
         </is>
       </c>
       <c r="AZ10" t="inlineStr">
         <is>
-          <t>10396</t>
+          <t>10395939</t>
         </is>
       </c>
       <c r="BA10" t="inlineStr">
         <is>
-          <t>10146</t>
+          <t>10145865</t>
         </is>
       </c>
       <c r="BB10" t="inlineStr">
         <is>
-          <t>11972</t>
+          <t>11972354</t>
         </is>
       </c>
       <c r="BC10" t="inlineStr">
         <is>
-          <t>12924</t>
+          <t>12923636</t>
         </is>
       </c>
       <c r="BD10" t="inlineStr">
         <is>
-          <t>12848</t>
+          <t>12847616</t>
         </is>
       </c>
       <c r="BE10" t="inlineStr">
         <is>
-          <t>12666</t>
+          <t>12666171</t>
         </is>
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>12757</t>
+          <t>12757470</t>
         </is>
       </c>
       <c r="BG10" t="inlineStr">
         <is>
-          <t>13087</t>
+          <t>13087437</t>
         </is>
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>14572</t>
+          <t>14572026</t>
         </is>
       </c>
       <c r="BI10" t="inlineStr">
         <is>
-          <t>15174</t>
+          <t>15174236</t>
         </is>
       </c>
       <c r="BJ10" t="inlineStr">
         <is>
-          <t>15339</t>
+          <t>15338887</t>
         </is>
       </c>
       <c r="BK10" t="inlineStr">
         <is>
-          <t>15578</t>
+          <t>15577514</t>
         </is>
       </c>
       <c r="BL10" t="inlineStr">
         <is>
-          <t>16312</t>
+          <t>16312156</t>
         </is>
       </c>
       <c r="BM10" t="inlineStr">
         <is>
-          <t>15475</t>
+          <t>15475215</t>
         </is>
       </c>
       <c r="BN10" t="inlineStr">
         <is>
-          <t>15843</t>
+          <t>15842616</t>
         </is>
       </c>
     </row>
@@ -2977,327 +2977,327 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>147384</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>210307</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>308616</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>365251</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>401906</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>239524</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>568</t>
+          <t>568108</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>460336</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>436833</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>381657</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>507</t>
+          <t>506508</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>404245</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>422589</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>397205</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>510477</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>434485</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>510949</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>569524</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>589</t>
+          <t>589006</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>550348</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>595490</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>546847</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>712</t>
+          <t>711783</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>435877</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>783</t>
+          <t>782866</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>673</t>
+          <t>672601</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>760</t>
+          <t>759519</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>707</t>
+          <t>706910</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>867</t>
+          <t>866718</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>837</t>
+          <t>836739</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>931</t>
+          <t>931206</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>948</t>
+          <t>947528</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>919</t>
+          <t>918980</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>1045</t>
+          <t>1044872</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>1391</t>
+          <t>1390951</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>1245</t>
+          <t>1244519</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>1420</t>
+          <t>1419963</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>1553</t>
+          <t>1552612</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>1737</t>
+          <t>1737327</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>1706</t>
+          <t>1705592</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>1936</t>
+          <t>1936032</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>1861</t>
+          <t>1861468</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>2384</t>
+          <t>2384470</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr">
         <is>
-          <t>1924</t>
+          <t>1924473</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr">
         <is>
-          <t>1948</t>
+          <t>1947948</t>
         </is>
       </c>
       <c r="AU11" t="inlineStr">
         <is>
-          <t>2033</t>
+          <t>2032996</t>
         </is>
       </c>
       <c r="AV11" t="inlineStr">
         <is>
-          <t>2437</t>
+          <t>2437072</t>
         </is>
       </c>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>2222</t>
+          <t>2221818</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>2448</t>
+          <t>2448201</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr">
         <is>
-          <t>2180</t>
+          <t>2180213</t>
         </is>
       </c>
       <c r="AZ11" t="inlineStr">
         <is>
-          <t>2720</t>
+          <t>2720027</t>
         </is>
       </c>
       <c r="BA11" t="inlineStr">
         <is>
-          <t>2299</t>
+          <t>2298808</t>
         </is>
       </c>
       <c r="BB11" t="inlineStr">
         <is>
-          <t>2850</t>
+          <t>2850055</t>
         </is>
       </c>
       <c r="BC11" t="inlineStr">
         <is>
-          <t>2972</t>
+          <t>2972432</t>
         </is>
       </c>
       <c r="BD11" t="inlineStr">
         <is>
-          <t>3653</t>
+          <t>3652899</t>
         </is>
       </c>
       <c r="BE11" t="inlineStr">
         <is>
-          <t>3341</t>
+          <t>3341451</t>
         </is>
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2902</t>
+          <t>2901827</t>
         </is>
       </c>
       <c r="BG11" t="inlineStr">
         <is>
-          <t>2836</t>
+          <t>2835950</t>
         </is>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>3310</t>
+          <t>3310266</t>
         </is>
       </c>
       <c r="BI11" t="inlineStr">
         <is>
-          <t>3092</t>
+          <t>3091737</t>
         </is>
       </c>
       <c r="BJ11" t="inlineStr">
         <is>
-          <t>3178</t>
+          <t>3178353</t>
         </is>
       </c>
       <c r="BK11" t="inlineStr">
         <is>
-          <t>3125</t>
+          <t>3125194</t>
         </is>
       </c>
       <c r="BL11" t="inlineStr">
         <is>
-          <t>2841</t>
+          <t>2841356</t>
         </is>
       </c>
       <c r="BM11" t="inlineStr">
         <is>
-          <t>2875</t>
+          <t>2874899</t>
         </is>
       </c>
       <c r="BN11" t="inlineStr">
         <is>
-          <t>3141</t>
+          <t>3141453</t>
         </is>
       </c>
     </row>
@@ -3309,327 +3309,327 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>34325</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>41754</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>65098</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>49181</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>58938</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>58097</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>89839</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>72503</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>166968</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>386580</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>155168</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>105218</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>136389</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>147420</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>180085</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>130451</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>144703</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>148087</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>153887</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>157530</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>167243</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>299670</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>312239</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>164946</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>376316</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>286603</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>363096</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>330117</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>438303</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>442904</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>442839</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>435456</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>522</t>
+          <t>522096</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>671</t>
+          <t>670834</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>819</t>
+          <t>818756</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>652028</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>813</t>
+          <t>813157</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>766</t>
+          <t>766020</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>953</t>
+          <t>953191</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>736</t>
+          <t>736267</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>950</t>
+          <t>949985</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>770</t>
+          <t>769876</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>1376</t>
+          <t>1375712</t>
         </is>
       </c>
       <c r="AS12" t="inlineStr">
         <is>
-          <t>865</t>
+          <t>865447</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr">
         <is>
-          <t>845</t>
+          <t>845467</t>
         </is>
       </c>
       <c r="AU12" t="inlineStr">
         <is>
-          <t>976</t>
+          <t>976367</t>
         </is>
       </c>
       <c r="AV12" t="inlineStr">
         <is>
-          <t>1314</t>
+          <t>1314417</t>
         </is>
       </c>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>939</t>
+          <t>938646</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>1091</t>
+          <t>1091380</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr">
         <is>
-          <t>1026</t>
+          <t>1025810</t>
         </is>
       </c>
       <c r="AZ12" t="inlineStr">
         <is>
-          <t>1562</t>
+          <t>1562183</t>
         </is>
       </c>
       <c r="BA12" t="inlineStr">
         <is>
-          <t>1021</t>
+          <t>1020681</t>
         </is>
       </c>
       <c r="BB12" t="inlineStr">
         <is>
-          <t>1290</t>
+          <t>1289822</t>
         </is>
       </c>
       <c r="BC12" t="inlineStr">
         <is>
-          <t>1507</t>
+          <t>1506948</t>
         </is>
       </c>
       <c r="BD12" t="inlineStr">
         <is>
-          <t>1867</t>
+          <t>1867318</t>
         </is>
       </c>
       <c r="BE12" t="inlineStr">
         <is>
-          <t>1341</t>
+          <t>1340780</t>
         </is>
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1118</t>
+          <t>1117648</t>
         </is>
       </c>
       <c r="BG12" t="inlineStr">
         <is>
-          <t>1021</t>
+          <t>1020780</t>
         </is>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>1756</t>
+          <t>1756457</t>
         </is>
       </c>
       <c r="BI12" t="inlineStr">
         <is>
-          <t>1313</t>
+          <t>1312984</t>
         </is>
       </c>
       <c r="BJ12" t="inlineStr">
         <is>
-          <t>1292</t>
+          <t>1292117</t>
         </is>
       </c>
       <c r="BK12" t="inlineStr">
         <is>
-          <t>1324</t>
+          <t>1323745</t>
         </is>
       </c>
       <c r="BL12" t="inlineStr">
         <is>
-          <t>1602</t>
+          <t>1601657</t>
         </is>
       </c>
       <c r="BM12" t="inlineStr">
         <is>
-          <t>1264</t>
+          <t>1264360</t>
         </is>
       </c>
       <c r="BN12" t="inlineStr">
         <is>
-          <t>1707</t>
+          <t>1707237</t>
         </is>
       </c>
     </row>
@@ -3641,327 +3641,327 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>113059</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>168553</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>243518</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>316070</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>342968</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>181426</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>478269</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>388</t>
+          <t>387833</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>269865</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>-4923</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>351340</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>299027</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>286200</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>249785</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>330392</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>304034</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>366246</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>421</t>
+          <t>421437</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>435119</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>392817</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>428</t>
+          <t>428247</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>247176</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>399544</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>270931</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>407</t>
+          <t>406550</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>386</t>
+          <t>385998</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>396</t>
+          <t>396423</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>376793</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>428</t>
+          <t>428415</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>393835</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>488</t>
+          <t>488367</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>512072</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>396884</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>374038</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>572</t>
+          <t>572195</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>592</t>
+          <t>592491</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>607</t>
+          <t>606806</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>787</t>
+          <t>786592</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>784</t>
+          <t>784136</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>969</t>
+          <t>969325</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>986</t>
+          <t>986047</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>1092</t>
+          <t>1091592</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>1009</t>
+          <t>1008758</t>
         </is>
       </c>
       <c r="AS13" t="inlineStr">
         <is>
-          <t>1059</t>
+          <t>1059026</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr">
         <is>
-          <t>1102</t>
+          <t>1102481</t>
         </is>
       </c>
       <c r="AU13" t="inlineStr">
         <is>
-          <t>1057</t>
+          <t>1056629</t>
         </is>
       </c>
       <c r="AV13" t="inlineStr">
         <is>
-          <t>1123</t>
+          <t>1122655</t>
         </is>
       </c>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>1283</t>
+          <t>1283172</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>1357</t>
+          <t>1356821</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr">
         <is>
-          <t>1154</t>
+          <t>1154403</t>
         </is>
       </c>
       <c r="AZ13" t="inlineStr">
         <is>
-          <t>1158</t>
+          <t>1157844</t>
         </is>
       </c>
       <c r="BA13" t="inlineStr">
         <is>
-          <t>1278</t>
+          <t>1278127</t>
         </is>
       </c>
       <c r="BB13" t="inlineStr">
         <is>
-          <t>1560</t>
+          <t>1560233</t>
         </is>
       </c>
       <c r="BC13" t="inlineStr">
         <is>
-          <t>1465</t>
+          <t>1465484</t>
         </is>
       </c>
       <c r="BD13" t="inlineStr">
         <is>
-          <t>1786</t>
+          <t>1785581</t>
         </is>
       </c>
       <c r="BE13" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>2000671</t>
         </is>
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1784</t>
+          <t>1784179</t>
         </is>
       </c>
       <c r="BG13" t="inlineStr">
         <is>
-          <t>1815</t>
+          <t>1815170</t>
         </is>
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>1554</t>
+          <t>1553809</t>
         </is>
       </c>
       <c r="BI13" t="inlineStr">
         <is>
-          <t>1779</t>
+          <t>1778753</t>
         </is>
       </c>
       <c r="BJ13" t="inlineStr">
         <is>
-          <t>1886</t>
+          <t>1886236</t>
         </is>
       </c>
       <c r="BK13" t="inlineStr">
         <is>
-          <t>1801</t>
+          <t>1801449</t>
         </is>
       </c>
       <c r="BL13" t="inlineStr">
         <is>
-          <t>1240</t>
+          <t>1239699</t>
         </is>
       </c>
       <c r="BM13" t="inlineStr">
         <is>
-          <t>1611</t>
+          <t>1610539</t>
         </is>
       </c>
       <c r="BN13" t="inlineStr">
         <is>
-          <t>1434</t>
+          <t>1434216</t>
         </is>
       </c>
     </row>
@@ -3973,327 +3973,327 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>38914</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1174</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>-26</t>
+          <t>-26361</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>125592</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>-101</t>
+          <t>-101430</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>67450</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>68715</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>154100</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>118988</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>108167</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>-14</t>
+          <t>-13754</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>115863</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>70052</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>86199</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>82743</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>98278</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>-19</t>
+          <t>-18769</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>103340</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>112554</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>122512</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>71938</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>114809</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>77280</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>37322</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>27681</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>30394</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>-76</t>
+          <t>-75630</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>221478</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>122273</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>130955</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>210433</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>267805</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>85590</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>164109</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>192462</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>233900</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>123759</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>181997</t>
         </is>
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>170213</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>414492</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>372703</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>401667</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>375920</t>
         </is>
       </c>
       <c r="AS14" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>393086</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr">
         <is>
-          <t>644</t>
+          <t>643551</t>
         </is>
       </c>
       <c r="AU14" t="inlineStr">
         <is>
-          <t>477</t>
+          <t>477474</t>
         </is>
       </c>
       <c r="AV14" t="inlineStr">
         <is>
-          <t>486</t>
+          <t>485605</t>
         </is>
       </c>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>340401</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>516</t>
+          <t>516014</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr">
         <is>
-          <t>499</t>
+          <t>498694</t>
         </is>
       </c>
       <c r="AZ14" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>457375</t>
         </is>
       </c>
       <c r="BA14" t="inlineStr">
         <is>
-          <t>784</t>
+          <t>783664</t>
         </is>
       </c>
       <c r="BB14" t="inlineStr">
         <is>
-          <t>814</t>
+          <t>813635</t>
         </is>
       </c>
       <c r="BC14" t="inlineStr">
         <is>
-          <t>843</t>
+          <t>843139</t>
         </is>
       </c>
       <c r="BD14" t="inlineStr">
         <is>
-          <t>1130</t>
+          <t>1129622</t>
         </is>
       </c>
       <c r="BE14" t="inlineStr">
         <is>
-          <t>1173</t>
+          <t>1172650</t>
         </is>
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1177</t>
+          <t>1176766</t>
         </is>
       </c>
       <c r="BG14" t="inlineStr">
         <is>
-          <t>1135</t>
+          <t>1135313</t>
         </is>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>763</t>
+          <t>763380</t>
         </is>
       </c>
       <c r="BI14" t="inlineStr">
         <is>
-          <t>1344</t>
+          <t>1344217</t>
         </is>
       </c>
       <c r="BJ14" t="inlineStr">
         <is>
-          <t>1186</t>
+          <t>1186105</t>
         </is>
       </c>
       <c r="BK14" t="inlineStr">
         <is>
-          <t>609</t>
+          <t>608810</t>
         </is>
       </c>
       <c r="BL14" t="inlineStr">
         <is>
-          <t>1051</t>
+          <t>1050950</t>
         </is>
       </c>
       <c r="BM14" t="inlineStr">
         <is>
-          <t>913</t>
+          <t>912866</t>
         </is>
       </c>
       <c r="BN14" t="inlineStr">
         <is>
-          <t>1106</t>
+          <t>1106104</t>
         </is>
       </c>
     </row>
@@ -4310,322 +4310,322 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>50851</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4707</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>12403</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>-4009</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>-55</t>
+          <t>-54571</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>395</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>-5266</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>969</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>16819</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>9405</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11857</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>17024</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3176</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>5183</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>6023</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7810</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1704</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>23324</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>37039</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>55637</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>76423</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>99377</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>15062</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>19186</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>-4448</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>82565</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>-23</t>
+          <t>-23094</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>40873</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>83575</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>113039</t>
         </is>
       </c>
       <c r="AH15" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>64825</t>
         </is>
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>137879</t>
         </is>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>53774</t>
         </is>
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>239351</t>
         </is>
       </c>
       <c r="AL15" t="inlineStr">
         <is>
-          <t>-26</t>
+          <t>-25992</t>
         </is>
       </c>
       <c r="AM15" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>177889</t>
         </is>
       </c>
       <c r="AN15" t="inlineStr">
         <is>
-          <t>-112</t>
+          <t>-111820</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>131167</t>
         </is>
       </c>
       <c r="AP15" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4822</t>
         </is>
       </c>
       <c r="AQ15" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>176068</t>
         </is>
       </c>
       <c r="AR15" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>53507</t>
         </is>
       </c>
       <c r="AS15" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>263099</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>125970</t>
         </is>
       </c>
       <c r="AU15" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>9143</t>
         </is>
       </c>
       <c r="AV15" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>203063</t>
         </is>
       </c>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>177352</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>72152</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5853</t>
         </is>
       </c>
       <c r="AZ15" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>240507</t>
         </is>
       </c>
       <c r="BA15" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>56429</t>
         </is>
       </c>
       <c r="BB15" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>-7467</t>
         </is>
       </c>
       <c r="BC15" t="inlineStr">
         <is>
-          <t>-136</t>
+          <t>-136104</t>
         </is>
       </c>
       <c r="BD15" t="inlineStr">
         <is>
-          <t>-10</t>
+          <t>-10320</t>
         </is>
       </c>
       <c r="BE15" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>28015</t>
         </is>
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>201509</t>
         </is>
       </c>
       <c r="BG15" t="inlineStr">
         <is>
-          <t>-20</t>
+          <t>-19950</t>
         </is>
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>82990</t>
         </is>
       </c>
       <c r="BI15" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>38253</t>
         </is>
       </c>
       <c r="BJ15" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>24649</t>
         </is>
       </c>
       <c r="BK15" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>16411</t>
         </is>
       </c>
       <c r="BL15" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>13430</t>
         </is>
       </c>
       <c r="BM15" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>238195</t>
         </is>
       </c>
       <c r="BN15" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>213219</t>
         </is>
       </c>
     </row>
@@ -4637,327 +4637,327 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>-8699</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>-34</t>
+          <t>-33756</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>15258</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>-7069</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9724</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>-6776</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>-254</t>
+          <t>-254282</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7546</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2696</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>-77</t>
+          <t>-77032</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>-64</t>
+          <t>-63680</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4833</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>43771</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>-3084</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>475</t>
+          <t>475453</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>-3711</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>94085</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2421</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>-66</t>
+          <t>-66026</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>-5315</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>-130</t>
+          <t>-130281</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2197</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>-20</t>
+          <t>-20275</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>-43</t>
+          <t>-43233</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>-64</t>
+          <t>-64430</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>-74</t>
+          <t>-74160</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>234630</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31562</t>
         </is>
       </c>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>-6</t>
+          <t>-5830</t>
         </is>
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>-1393</t>
         </is>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>16721</t>
         </is>
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>-18</t>
+          <t>-17759</t>
         </is>
       </c>
       <c r="AH16" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>71433</t>
         </is>
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>-152</t>
+          <t>-151533</t>
         </is>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>-28</t>
+          <t>-27859</t>
         </is>
       </c>
       <c r="AK16" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>79624</t>
         </is>
       </c>
       <c r="AL16" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>50774</t>
         </is>
       </c>
       <c r="AM16" t="inlineStr">
         <is>
-          <t>-28</t>
+          <t>-28387</t>
         </is>
       </c>
       <c r="AN16" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>122027</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>-83</t>
+          <t>-82928</t>
         </is>
       </c>
       <c r="AP16" t="inlineStr">
         <is>
-          <t>-63</t>
+          <t>-62964</t>
         </is>
       </c>
       <c r="AQ16" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>23423</t>
         </is>
       </c>
       <c r="AR16" t="inlineStr">
         <is>
-          <t>-572</t>
+          <t>-571774</t>
         </is>
       </c>
       <c r="AS16" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>164620</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr">
         <is>
-          <t>-29</t>
+          <t>-29150</t>
         </is>
       </c>
       <c r="AU16" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>106327</t>
         </is>
       </c>
       <c r="AV16" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>119153</t>
         </is>
       </c>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>-110</t>
+          <t>-110284</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21994</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>232655</t>
         </is>
       </c>
       <c r="AZ16" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>70857</t>
         </is>
       </c>
       <c r="BA16" t="inlineStr">
         <is>
-          <t>-233</t>
+          <t>-232807</t>
         </is>
       </c>
       <c r="BB16" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>238631</t>
         </is>
       </c>
       <c r="BC16" t="inlineStr">
         <is>
-          <t>-105</t>
+          <t>-104601</t>
         </is>
       </c>
       <c r="BD16" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>70285</t>
         </is>
       </c>
       <c r="BE16" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14889</t>
         </is>
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1967</t>
         </is>
       </c>
       <c r="BG16" t="inlineStr">
         <is>
-          <t>-13</t>
+          <t>-12987</t>
         </is>
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>-158</t>
+          <t>-157990</t>
         </is>
       </c>
       <c r="BI16" t="inlineStr">
         <is>
-          <t>-106</t>
+          <t>-106162</t>
         </is>
       </c>
       <c r="BJ16" t="inlineStr">
         <is>
-          <t>-34</t>
+          <t>-33548</t>
         </is>
       </c>
       <c r="BK16" t="inlineStr">
         <is>
-          <t>-202</t>
+          <t>-201712</t>
         </is>
       </c>
       <c r="BL16" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8716</t>
         </is>
       </c>
       <c r="BM16" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>90960</t>
         </is>
       </c>
       <c r="BN16" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>30591</t>
         </is>
       </c>
     </row>
@@ -4969,327 +4969,327 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>370690</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>601</t>
+          <t>601270</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>49839</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>92202</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>141939</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>338309</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>996</t>
+          <t>995774</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>328140</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>439064</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>465516</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>456</t>
+          <t>455736</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>226248</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>409346</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>389174</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>565332</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>267061</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>365783</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>794</t>
+          <t>793844</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>505</t>
+          <t>505227</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>559288</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>447723</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>328959</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>2407</t>
+          <t>2406928</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>605</t>
+          <t>605236</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>776</t>
+          <t>776447</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>1070</t>
+          <t>1069615</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>1657</t>
+          <t>1656826</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>794</t>
+          <t>794243</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>341604</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>911</t>
+          <t>911034</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>548</t>
+          <t>548129</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>802</t>
+          <t>802052</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>437617</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>678</t>
+          <t>677729</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
-          <t>1317</t>
+          <t>1316514</t>
         </is>
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>664</t>
+          <t>663578</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>712</t>
+          <t>712121</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>826</t>
+          <t>825970</t>
         </is>
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>702</t>
+          <t>701555</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>406494</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>660</t>
+          <t>660349</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>518</t>
+          <t>517873</t>
         </is>
       </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>994</t>
+          <t>994259</t>
         </is>
       </c>
       <c r="AS17" t="inlineStr">
         <is>
-          <t>429</t>
+          <t>428781</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr">
         <is>
-          <t>475</t>
+          <t>475473</t>
         </is>
       </c>
       <c r="AU17" t="inlineStr">
         <is>
-          <t>919</t>
+          <t>919165</t>
         </is>
       </c>
       <c r="AV17" t="inlineStr">
         <is>
-          <t>877</t>
+          <t>877094</t>
         </is>
       </c>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>652094</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>1493</t>
+          <t>1493133</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr">
         <is>
-          <t>690</t>
+          <t>690077</t>
         </is>
       </c>
       <c r="AZ17" t="inlineStr">
         <is>
-          <t>1690</t>
+          <t>1689758</t>
         </is>
       </c>
       <c r="BA17" t="inlineStr">
         <is>
-          <t>2147</t>
+          <t>2147279</t>
         </is>
       </c>
       <c r="BB17" t="inlineStr">
         <is>
-          <t>1441</t>
+          <t>1440988</t>
         </is>
       </c>
       <c r="BC17" t="inlineStr">
         <is>
-          <t>2596</t>
+          <t>2596210</t>
         </is>
       </c>
       <c r="BD17" t="inlineStr">
         <is>
-          <t>1404</t>
+          <t>1403975</t>
         </is>
       </c>
       <c r="BE17" t="inlineStr">
         <is>
-          <t>1206</t>
+          <t>1205592</t>
         </is>
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2076</t>
+          <t>2076206</t>
         </is>
       </c>
       <c r="BG17" t="inlineStr">
         <is>
-          <t>1735</t>
+          <t>1735446</t>
         </is>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>2009290</t>
         </is>
       </c>
       <c r="BI17" t="inlineStr">
         <is>
-          <t>1280</t>
+          <t>1279714</t>
         </is>
       </c>
       <c r="BJ17" t="inlineStr">
         <is>
-          <t>2127</t>
+          <t>2126805</t>
         </is>
       </c>
       <c r="BK17" t="inlineStr">
         <is>
-          <t>4377</t>
+          <t>4377345</t>
         </is>
       </c>
       <c r="BL17" t="inlineStr">
         <is>
-          <t>3043</t>
+          <t>3043349</t>
         </is>
       </c>
       <c r="BM17" t="inlineStr">
         <is>
-          <t>2241</t>
+          <t>2241243</t>
         </is>
       </c>
       <c r="BN17" t="inlineStr">
         <is>
-          <t>2546</t>
+          <t>2545568</t>
         </is>
       </c>
     </row>
@@ -5301,327 +5301,327 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>233296</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8793</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34747</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>43153</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>22265</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>60615</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>32050</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>57831</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>106534</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>190776</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>139664</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>33745</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>68630</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>122776</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>74401</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>83087</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>163980</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>102100</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>111305</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>369647</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>320027</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>151020</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>1288</t>
+          <t>1287920</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>421</t>
+          <t>420610</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>384695</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>428</t>
+          <t>427917</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>673</t>
+          <t>672616</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>393869</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>315240</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>228456</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>352944</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>146761</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>299299</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>125903</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>668</t>
+          <t>668084</t>
         </is>
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>306995</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>283707</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>282597</t>
         </is>
       </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>153411</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>257074</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>464744</t>
         </is>
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>260856</t>
         </is>
       </c>
       <c r="AR18" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>96130</t>
         </is>
       </c>
       <c r="AS18" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>153401</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>280380</t>
         </is>
       </c>
       <c r="AU18" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>237211</t>
         </is>
       </c>
       <c r="AV18" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>153704</t>
         </is>
       </c>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>213554</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>358859</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>325323</t>
         </is>
       </c>
       <c r="AZ18" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>220467</t>
         </is>
       </c>
       <c r="BA18" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>269750</t>
         </is>
       </c>
       <c r="BB18" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>329685</t>
         </is>
       </c>
       <c r="BC18" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>357757</t>
         </is>
       </c>
       <c r="BD18" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>26684</t>
         </is>
       </c>
       <c r="BE18" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>185634</t>
         </is>
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>298059</t>
         </is>
       </c>
       <c r="BG18" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>325678</t>
         </is>
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>469</t>
+          <t>469349</t>
         </is>
       </c>
       <c r="BI18" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>501593</t>
         </is>
       </c>
       <c r="BJ18" t="inlineStr">
         <is>
-          <t>1040</t>
+          <t>1039594</t>
         </is>
       </c>
       <c r="BK18" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>414355</t>
         </is>
       </c>
       <c r="BL18" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>412485</t>
         </is>
       </c>
       <c r="BM18" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>238922</t>
         </is>
       </c>
       <c r="BN18" t="inlineStr">
         <is>
-          <t>372</t>
+          <t>372166</t>
         </is>
       </c>
     </row>
@@ -5633,327 +5633,327 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>137393</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>592</t>
+          <t>592476</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>15092</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>49050</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>119675</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>277694</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>964</t>
+          <t>963724</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>270309</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>332530</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>274741</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>316072</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>192503</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>340716</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>266398</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>491</t>
+          <t>490931</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>183974</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>201803</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>692</t>
+          <t>691744</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>393922</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>189641</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>127697</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>177938</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>1119</t>
+          <t>1119008</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>184626</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>391752</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>642</t>
+          <t>641698</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>984</t>
+          <t>984210</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>400374</t>
         </is>
       </c>
       <c r="AD19" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>26364</t>
         </is>
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>683</t>
+          <t>682578</t>
         </is>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>195185</t>
         </is>
       </c>
       <c r="AG19" t="inlineStr">
         <is>
-          <t>655</t>
+          <t>655291</t>
         </is>
       </c>
       <c r="AH19" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>138318</t>
         </is>
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>552</t>
+          <t>551826</t>
         </is>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>648</t>
+          <t>648430</t>
         </is>
       </c>
       <c r="AK19" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>356583</t>
         </is>
       </c>
       <c r="AL19" t="inlineStr">
         <is>
-          <t>428</t>
+          <t>428414</t>
         </is>
       </c>
       <c r="AM19" t="inlineStr">
         <is>
-          <t>543</t>
+          <t>543373</t>
         </is>
       </c>
       <c r="AN19" t="inlineStr">
         <is>
-          <t>548</t>
+          <t>548144</t>
         </is>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>149420</t>
         </is>
       </c>
       <c r="AP19" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>195605</t>
         </is>
       </c>
       <c r="AQ19" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>257017</t>
         </is>
       </c>
       <c r="AR19" t="inlineStr">
         <is>
-          <t>898</t>
+          <t>898129</t>
         </is>
       </c>
       <c r="AS19" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>275380</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>195093</t>
         </is>
       </c>
       <c r="AU19" t="inlineStr">
         <is>
-          <t>682</t>
+          <t>681954</t>
         </is>
       </c>
       <c r="AV19" t="inlineStr">
         <is>
-          <t>723</t>
+          <t>723390</t>
         </is>
       </c>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>438540</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>1134</t>
+          <t>1134274</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>364754</t>
         </is>
       </c>
       <c r="AZ19" t="inlineStr">
         <is>
-          <t>1469</t>
+          <t>1469291</t>
         </is>
       </c>
       <c r="BA19" t="inlineStr">
         <is>
-          <t>1878</t>
+          <t>1877529</t>
         </is>
       </c>
       <c r="BB19" t="inlineStr">
         <is>
-          <t>1111</t>
+          <t>1111303</t>
         </is>
       </c>
       <c r="BC19" t="inlineStr">
         <is>
-          <t>2238</t>
+          <t>2238453</t>
         </is>
       </c>
       <c r="BD19" t="inlineStr">
         <is>
-          <t>1377</t>
+          <t>1377291</t>
         </is>
       </c>
       <c r="BE19" t="inlineStr">
         <is>
-          <t>1020</t>
+          <t>1019958</t>
         </is>
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1778</t>
+          <t>1778147</t>
         </is>
       </c>
       <c r="BG19" t="inlineStr">
         <is>
-          <t>1410</t>
+          <t>1409768</t>
         </is>
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>1540</t>
+          <t>1539941</t>
         </is>
       </c>
       <c r="BI19" t="inlineStr">
         <is>
-          <t>778</t>
+          <t>778121</t>
         </is>
       </c>
       <c r="BJ19" t="inlineStr">
         <is>
-          <t>1087</t>
+          <t>1087211</t>
         </is>
       </c>
       <c r="BK19" t="inlineStr">
         <is>
-          <t>3963</t>
+          <t>3962990</t>
         </is>
       </c>
       <c r="BL19" t="inlineStr">
         <is>
-          <t>2631</t>
+          <t>2630864</t>
         </is>
       </c>
       <c r="BM19" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2002321</t>
         </is>
       </c>
       <c r="BN19" t="inlineStr">
         <is>
-          <t>2173</t>
+          <t>2173402</t>
         </is>
       </c>
     </row>
@@ -5965,327 +5965,327 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>56</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>85219</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>-64</t>
+          <t>-64062</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>754</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>59861</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>58598</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>-32</t>
+          <t>-32477</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>67417</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>66498</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>35858</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>66347</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>56829</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>41269</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>339804</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>-262</t>
+          <t>-261808</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>50070</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>58793</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>49191</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15976</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>40704</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>54328</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>48664</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22689</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14546</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>38822</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-146</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>-12</t>
+          <t>-12262</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1721</t>
         </is>
       </c>
       <c r="AD20" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13520</t>
         </is>
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>40934</t>
         </is>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>90584</t>
         </is>
       </c>
       <c r="AG20" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>27131</t>
         </is>
       </c>
       <c r="AH20" t="inlineStr">
         <is>
-          <t>532</t>
+          <t>531763</t>
         </is>
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>98211</t>
         </is>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>85941</t>
         </is>
       </c>
       <c r="AK20" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>98995</t>
         </is>
       </c>
       <c r="AL20" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>111345</t>
         </is>
       </c>
       <c r="AM20" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>120404</t>
         </is>
       </c>
       <c r="AN20" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>36543</t>
         </is>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>101155</t>
         </is>
       </c>
       <c r="AP20" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>313652</t>
         </is>
       </c>
       <c r="AQ20" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>96263</t>
         </is>
       </c>
       <c r="AR20" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>116759</t>
         </is>
       </c>
       <c r="AS20" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>111118</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>138833</t>
         </is>
       </c>
       <c r="AU20" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>101155</t>
         </is>
       </c>
       <c r="AV20" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>168991</t>
         </is>
       </c>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>151236</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>103558</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>127293</t>
         </is>
       </c>
       <c r="AZ20" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>95295</t>
         </is>
       </c>
       <c r="BA20" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>161398</t>
         </is>
       </c>
       <c r="BB20" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>251977</t>
         </is>
       </c>
       <c r="BC20" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>94172</t>
         </is>
       </c>
       <c r="BD20" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>45268</t>
         </is>
       </c>
       <c r="BE20" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>115691</t>
         </is>
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>71892</t>
         </is>
       </c>
       <c r="BG20" t="inlineStr">
         <is>
-          <t>-22</t>
+          <t>-21597</t>
         </is>
       </c>
       <c r="BH20" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>121282</t>
         </is>
       </c>
       <c r="BI20" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>59471</t>
         </is>
       </c>
       <c r="BJ20" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>150897</t>
         </is>
       </c>
       <c r="BK20" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>150836</t>
         </is>
       </c>
       <c r="BL20" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>29444</t>
         </is>
       </c>
       <c r="BM20" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>123287</t>
         </is>
       </c>
       <c r="BN20" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>116932</t>
         </is>
       </c>
     </row>
@@ -6297,327 +6297,327 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>725</t>
+          <t>724944</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1381</t>
+          <t>1381006</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2146</t>
+          <t>2145793</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1294</t>
+          <t>1293616</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1999</t>
+          <t>1999384</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>1678</t>
+          <t>1678264</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2150</t>
+          <t>2149684</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>1938</t>
+          <t>1938013</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>3745</t>
+          <t>3745263</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>3177</t>
+          <t>3177064</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>895</t>
+          <t>894719</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>2178</t>
+          <t>2178359</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>3198</t>
+          <t>3197599</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>1666</t>
+          <t>1666335</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>2375</t>
+          <t>2374871</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2567</t>
+          <t>2567419</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>2085</t>
+          <t>2084690</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>2199</t>
+          <t>2198744</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>3056</t>
+          <t>3055692</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>2505</t>
+          <t>2505396</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>1976</t>
+          <t>1976438</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>2773</t>
+          <t>2773069</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>2795</t>
+          <t>2794582</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>2182</t>
+          <t>2181783</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2403</t>
+          <t>2403077</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2781</t>
+          <t>2780890</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>3354</t>
+          <t>3353707</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>2646</t>
+          <t>2645942</t>
         </is>
       </c>
       <c r="AD21" t="inlineStr">
         <is>
-          <t>3012</t>
+          <t>3011846</t>
         </is>
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>3047</t>
+          <t>3046766</t>
         </is>
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>4197</t>
+          <t>4197103</t>
         </is>
       </c>
       <c r="AG21" t="inlineStr">
         <is>
-          <t>3114</t>
+          <t>3114304</t>
         </is>
       </c>
       <c r="AH21" t="inlineStr">
         <is>
-          <t>3560</t>
+          <t>3559871</t>
         </is>
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>3369</t>
+          <t>3368615</t>
         </is>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
-          <t>5026</t>
+          <t>5025981</t>
         </is>
       </c>
       <c r="AK21" t="inlineStr">
         <is>
-          <t>3455</t>
+          <t>3455427</t>
         </is>
       </c>
       <c r="AL21" t="inlineStr">
         <is>
-          <t>3663</t>
+          <t>3663247</t>
         </is>
       </c>
       <c r="AM21" t="inlineStr">
         <is>
-          <t>3581</t>
+          <t>3580668</t>
         </is>
       </c>
       <c r="AN21" t="inlineStr">
         <is>
-          <t>3558</t>
+          <t>3557669</t>
         </is>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>3238</t>
+          <t>3237794</t>
         </is>
       </c>
       <c r="AP21" t="inlineStr">
         <is>
-          <t>3619</t>
+          <t>3619264</t>
         </is>
       </c>
       <c r="AQ21" t="inlineStr">
         <is>
-          <t>3753</t>
+          <t>3752698</t>
         </is>
       </c>
       <c r="AR21" t="inlineStr">
         <is>
-          <t>5130</t>
+          <t>5129759</t>
         </is>
       </c>
       <c r="AS21" t="inlineStr">
         <is>
-          <t>3318</t>
+          <t>3317572</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr">
         <is>
-          <t>3282</t>
+          <t>3281706</t>
         </is>
       </c>
       <c r="AU21" t="inlineStr">
         <is>
-          <t>3749</t>
+          <t>3748792</t>
         </is>
       </c>
       <c r="AV21" t="inlineStr">
         <is>
-          <t>5713</t>
+          <t>5713435</t>
         </is>
       </c>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>3512</t>
+          <t>3512229</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>4187</t>
+          <t>4187076</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr">
         <is>
-          <t>3647</t>
+          <t>3646918</t>
         </is>
       </c>
       <c r="AZ21" t="inlineStr">
         <is>
-          <t>5832</t>
+          <t>5831801</t>
         </is>
       </c>
       <c r="BA21" t="inlineStr">
         <is>
-          <t>3821</t>
+          <t>3821026</t>
         </is>
       </c>
       <c r="BB21" t="inlineStr">
         <is>
-          <t>4272</t>
+          <t>4272331</t>
         </is>
       </c>
       <c r="BC21" t="inlineStr">
         <is>
-          <t>4847</t>
+          <t>4846989</t>
         </is>
       </c>
       <c r="BD21" t="inlineStr">
         <is>
-          <t>6363</t>
+          <t>6363452</t>
         </is>
       </c>
       <c r="BE21" t="inlineStr">
         <is>
-          <t>4314</t>
+          <t>4313889</t>
         </is>
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4743</t>
+          <t>4743381</t>
         </is>
       </c>
       <c r="BG21" t="inlineStr">
         <is>
-          <t>5082</t>
+          <t>5081879</t>
         </is>
       </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>6304</t>
+          <t>6304215</t>
         </is>
       </c>
       <c r="BI21" t="inlineStr">
         <is>
-          <t>4807</t>
+          <t>4807448</t>
         </is>
       </c>
       <c r="BJ21" t="inlineStr">
         <is>
-          <t>5074</t>
+          <t>5073752</t>
         </is>
       </c>
       <c r="BK21" t="inlineStr">
         <is>
-          <t>6095</t>
+          <t>6094955</t>
         </is>
       </c>
       <c r="BL21" t="inlineStr">
         <is>
-          <t>6576</t>
+          <t>6575579</t>
         </is>
       </c>
       <c r="BM21" t="inlineStr">
         <is>
-          <t>5519</t>
+          <t>5519223</t>
         </is>
       </c>
       <c r="BN21" t="inlineStr">
         <is>
-          <t>5847</t>
+          <t>5847160</t>
         </is>
       </c>
     </row>
@@ -6629,327 +6629,327 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1206</t>
+          <t>1206290</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1572</t>
+          <t>1571704</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>514</t>
+          <t>514086</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1453</t>
+          <t>1452578</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1504</t>
+          <t>1503644</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>1855</t>
+          <t>1855238</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2820</t>
+          <t>2819874</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>3145</t>
+          <t>3144852</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>2141</t>
+          <t>2140842</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>2534</t>
+          <t>2533552</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>5116</t>
+          <t>5116262</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>2862</t>
+          <t>2861578</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>2282</t>
+          <t>2281758</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>3956</t>
+          <t>3956091</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>3447</t>
+          <t>3447307</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2716</t>
+          <t>2716228</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>3308</t>
+          <t>3308322</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>3707</t>
+          <t>3707009</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>2171</t>
+          <t>2170878</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>2483</t>
+          <t>2482517</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>3108</t>
+          <t>3107606</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>2383</t>
+          <t>2382705</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>3232</t>
+          <t>3231613</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>3074</t>
+          <t>3074212</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>3340</t>
+          <t>3340483</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>3131</t>
+          <t>3131121</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>2479</t>
+          <t>2478611</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>3846</t>
+          <t>3846150</t>
         </is>
       </c>
       <c r="AD22" t="inlineStr">
         <is>
-          <t>3436</t>
+          <t>3435973</t>
         </is>
       </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>4181</t>
+          <t>4180507</t>
         </is>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>2089</t>
+          <t>2089493</t>
         </is>
       </c>
       <c r="AG22" t="inlineStr">
         <is>
-          <t>4609</t>
+          <t>4608799</t>
         </is>
       </c>
       <c r="AH22" t="inlineStr">
         <is>
-          <t>5048</t>
+          <t>5048339</t>
         </is>
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>4238</t>
+          <t>4238157</t>
         </is>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
-          <t>3655</t>
+          <t>3654786</t>
         </is>
       </c>
       <c r="AK22" t="inlineStr">
         <is>
-          <t>5379</t>
+          <t>5379090</t>
         </is>
       </c>
       <c r="AL22" t="inlineStr">
         <is>
-          <t>4839</t>
+          <t>4838720</t>
         </is>
       </c>
       <c r="AM22" t="inlineStr">
         <is>
-          <t>5708</t>
+          <t>5708269</t>
         </is>
       </c>
       <c r="AN22" t="inlineStr">
         <is>
-          <t>-1436</t>
+          <t>-1435948</t>
         </is>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>6394</t>
+          <t>6394473</t>
         </is>
       </c>
       <c r="AP22" t="inlineStr">
         <is>
-          <t>6418</t>
+          <t>6417806</t>
         </is>
       </c>
       <c r="AQ22" t="inlineStr">
         <is>
-          <t>6623</t>
+          <t>6623182</t>
         </is>
       </c>
       <c r="AR22" t="inlineStr">
         <is>
-          <t>5444</t>
+          <t>5443687</t>
         </is>
       </c>
       <c r="AS22" t="inlineStr">
         <is>
-          <t>7367</t>
+          <t>7367195</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr">
         <is>
-          <t>6693</t>
+          <t>6692971</t>
         </is>
       </c>
       <c r="AU22" t="inlineStr">
         <is>
-          <t>7762</t>
+          <t>7762170</t>
         </is>
       </c>
       <c r="AV22" t="inlineStr">
         <is>
-          <t>7396</t>
+          <t>7396185</t>
         </is>
       </c>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>9410</t>
+          <t>9410324</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>9896</t>
+          <t>9896321</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr">
         <is>
-          <t>8609</t>
+          <t>8608540</t>
         </is>
       </c>
       <c r="AZ22" t="inlineStr">
         <is>
-          <t>8055</t>
+          <t>8055307</t>
         </is>
       </c>
       <c r="BA22" t="inlineStr">
         <is>
-          <t>10249</t>
+          <t>10249179</t>
         </is>
       </c>
       <c r="BB22" t="inlineStr">
         <is>
-          <t>11668</t>
+          <t>11668335</t>
         </is>
       </c>
       <c r="BC22" t="inlineStr">
         <is>
-          <t>12477</t>
+          <t>12477190</t>
         </is>
       </c>
       <c r="BD22" t="inlineStr">
         <is>
-          <t>10882</t>
+          <t>10881891</t>
         </is>
       </c>
       <c r="BE22" t="inlineStr">
         <is>
-          <t>12704</t>
+          <t>12704156</t>
         </is>
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>13029</t>
+          <t>13028549</t>
         </is>
       </c>
       <c r="BG22" t="inlineStr">
         <is>
-          <t>12311</t>
+          <t>12311275</t>
         </is>
       </c>
       <c r="BH22" t="inlineStr">
         <is>
-          <t>12171</t>
+          <t>12171223</t>
         </is>
       </c>
       <c r="BI22" t="inlineStr">
         <is>
-          <t>14259</t>
+          <t>14259441</t>
         </is>
       </c>
       <c r="BJ22" t="inlineStr">
         <is>
-          <t>14567</t>
+          <t>14566685</t>
         </is>
       </c>
       <c r="BK22" t="inlineStr">
         <is>
-          <t>15821</t>
+          <t>15821343</t>
         </is>
       </c>
       <c r="BL22" t="inlineStr">
         <is>
-          <t>14710</t>
+          <t>14709680</t>
         </is>
       </c>
       <c r="BM22" t="inlineStr">
         <is>
-          <t>14934</t>
+          <t>14934160</t>
         </is>
       </c>
       <c r="BN22" t="inlineStr">
         <is>
-          <t>15070</t>
+          <t>15069920</t>
         </is>
       </c>
     </row>
@@ -6966,322 +6966,322 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>732</t>
+          <t>732466</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>-82</t>
+          <t>-82185</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>281465</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>532</t>
+          <t>531620</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>370463</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>1942</t>
+          <t>1941567</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>1983</t>
+          <t>1983020</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>-611</t>
+          <t>-611086</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>471</t>
+          <t>471005</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2707</t>
+          <t>2707211</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>845</t>
+          <t>844958</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>1482</t>
+          <t>1481774</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>466253</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>1551</t>
+          <t>1550888</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>1346</t>
+          <t>1346409</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>482524</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>797</t>
+          <t>796826</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>1465</t>
+          <t>1465122</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>1025</t>
+          <t>1024813</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>693</t>
+          <t>692642</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>775</t>
+          <t>775246</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>1409</t>
+          <t>1409264</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>1510</t>
+          <t>1510240</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>1026</t>
+          <t>1025872</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>1284</t>
+          <t>1284224</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>859</t>
+          <t>858650</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>1441</t>
+          <t>1441187</t>
         </is>
       </c>
       <c r="AD23" t="inlineStr">
         <is>
-          <t>1568</t>
+          <t>1567992</t>
         </is>
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>1968</t>
+          <t>1968255</t>
         </is>
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>44670</t>
         </is>
       </c>
       <c r="AG23" t="inlineStr">
         <is>
-          <t>2065</t>
+          <t>2064726</t>
         </is>
       </c>
       <c r="AH23" t="inlineStr">
         <is>
-          <t>2779</t>
+          <t>2778783</t>
         </is>
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>1820</t>
+          <t>1819602</t>
         </is>
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
-          <t>1681</t>
+          <t>1680984</t>
         </is>
       </c>
       <c r="AK23" t="inlineStr">
         <is>
-          <t>2351</t>
+          <t>2351397</t>
         </is>
       </c>
       <c r="AL23" t="inlineStr">
         <is>
-          <t>2601</t>
+          <t>2600786</t>
         </is>
       </c>
       <c r="AM23" t="inlineStr">
         <is>
-          <t>3378</t>
+          <t>3378148</t>
         </is>
       </c>
       <c r="AN23" t="inlineStr">
         <is>
-          <t>-583</t>
+          <t>-582527</t>
         </is>
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>3242</t>
+          <t>3241532</t>
         </is>
       </c>
       <c r="AP23" t="inlineStr">
         <is>
-          <t>4236</t>
+          <t>4235843</t>
         </is>
       </c>
       <c r="AQ23" t="inlineStr">
         <is>
-          <t>3502</t>
+          <t>3501760</t>
         </is>
       </c>
       <c r="AR23" t="inlineStr">
         <is>
-          <t>2120</t>
+          <t>2119681</t>
         </is>
       </c>
       <c r="AS23" t="inlineStr">
         <is>
-          <t>4393</t>
+          <t>4392768</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr">
         <is>
-          <t>2207</t>
+          <t>2207393</t>
         </is>
       </c>
       <c r="AU23" t="inlineStr">
         <is>
-          <t>4858</t>
+          <t>4858146</t>
         </is>
       </c>
       <c r="AV23" t="inlineStr">
         <is>
-          <t>690</t>
+          <t>689874</t>
         </is>
       </c>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>1350</t>
+          <t>1350133</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>7106</t>
+          <t>7106255</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr">
         <is>
-          <t>5548</t>
+          <t>5547913</t>
         </is>
       </c>
       <c r="AZ23" t="inlineStr">
         <is>
-          <t>4377</t>
+          <t>4377224</t>
         </is>
       </c>
       <c r="BA23" t="inlineStr">
         <is>
-          <t>4427</t>
+          <t>4426683</t>
         </is>
       </c>
       <c r="BB23" t="inlineStr">
         <is>
-          <t>5883</t>
+          <t>5883273</t>
         </is>
       </c>
       <c r="BC23" t="inlineStr">
         <is>
-          <t>8321</t>
+          <t>8320626</t>
         </is>
       </c>
       <c r="BD23" t="inlineStr">
         <is>
-          <t>5533</t>
+          <t>5532595</t>
         </is>
       </c>
       <c r="BE23" t="inlineStr">
         <is>
-          <t>6724</t>
+          <t>6723821</t>
         </is>
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>6478</t>
+          <t>6478353</t>
         </is>
       </c>
       <c r="BG23" t="inlineStr">
         <is>
-          <t>7440</t>
+          <t>7440325</t>
         </is>
       </c>
       <c r="BH23" t="inlineStr">
         <is>
-          <t>4473</t>
+          <t>4472642</t>
         </is>
       </c>
       <c r="BI23" t="inlineStr">
         <is>
-          <t>8049</t>
+          <t>8049159</t>
         </is>
       </c>
       <c r="BJ23" t="inlineStr">
         <is>
-          <t>7817</t>
+          <t>7816739</t>
         </is>
       </c>
       <c r="BK23" t="inlineStr">
         <is>
-          <t>9269</t>
+          <t>9268664</t>
         </is>
       </c>
       <c r="BL23" t="inlineStr">
         <is>
-          <t>2464</t>
+          <t>2464267</t>
         </is>
       </c>
       <c r="BM23" t="inlineStr">
         <is>
-          <t>8111</t>
+          <t>8110962</t>
         </is>
       </c>
       <c r="BN23" t="inlineStr">
         <is>
-          <t>2973</t>
+          <t>2972768</t>
         </is>
       </c>
     </row>
@@ -7293,327 +7293,327 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1206</t>
+          <t>1206290</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>839</t>
+          <t>839238</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>596271</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1171</t>
+          <t>1171113</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>972</t>
+          <t>972024</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>1485</t>
+          <t>1484775</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>878</t>
+          <t>878307</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>1162</t>
+          <t>1161832</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>2752</t>
+          <t>2751928</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>2063</t>
+          <t>2062547</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2409</t>
+          <t>2409051</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2016620</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>799984</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>3490</t>
+          <t>3489838</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>1896</t>
+          <t>1896418</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>1370</t>
+          <t>1369819</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>2826</t>
+          <t>2825798</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>2910</t>
+          <t>2910184</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>706</t>
+          <t>705756</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>1458</t>
+          <t>1457705</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>2415</t>
+          <t>2414964</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>1607</t>
+          <t>1607459</t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>1822</t>
+          <t>1822349</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>1564</t>
+          <t>1563972</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2315</t>
+          <t>2314611</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>1847</t>
+          <t>1846897</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>1620</t>
+          <t>1619961</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>2405</t>
+          <t>2404963</t>
         </is>
       </c>
       <c r="AD24" t="inlineStr">
         <is>
-          <t>1868</t>
+          <t>1867981</t>
         </is>
       </c>
       <c r="AE24" t="inlineStr">
         <is>
-          <t>2212</t>
+          <t>2212252</t>
         </is>
       </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>2045</t>
+          <t>2044823</t>
         </is>
       </c>
       <c r="AG24" t="inlineStr">
         <is>
-          <t>2544</t>
+          <t>2544073</t>
         </is>
       </c>
       <c r="AH24" t="inlineStr">
         <is>
-          <t>2270</t>
+          <t>2269556</t>
         </is>
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>2419</t>
+          <t>2418555</t>
         </is>
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
-          <t>1974</t>
+          <t>1973802</t>
         </is>
       </c>
       <c r="AK24" t="inlineStr">
         <is>
-          <t>3028</t>
+          <t>3027693</t>
         </is>
       </c>
       <c r="AL24" t="inlineStr">
         <is>
-          <t>2238</t>
+          <t>2237934</t>
         </is>
       </c>
       <c r="AM24" t="inlineStr">
         <is>
-          <t>2330</t>
+          <t>2330121</t>
         </is>
       </c>
       <c r="AN24" t="inlineStr">
         <is>
-          <t>-853</t>
+          <t>-853421</t>
         </is>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>3153</t>
+          <t>3152941</t>
         </is>
       </c>
       <c r="AP24" t="inlineStr">
         <is>
-          <t>2182</t>
+          <t>2181963</t>
         </is>
       </c>
       <c r="AQ24" t="inlineStr">
         <is>
-          <t>3121</t>
+          <t>3121422</t>
         </is>
       </c>
       <c r="AR24" t="inlineStr">
         <is>
-          <t>3324</t>
+          <t>3324006</t>
         </is>
       </c>
       <c r="AS24" t="inlineStr">
         <is>
-          <t>2974</t>
+          <t>2974427</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr">
         <is>
-          <t>4486</t>
+          <t>4485578</t>
         </is>
       </c>
       <c r="AU24" t="inlineStr">
         <is>
-          <t>2904</t>
+          <t>2904024</t>
         </is>
       </c>
       <c r="AV24" t="inlineStr">
         <is>
-          <t>6706</t>
+          <t>6706311</t>
         </is>
       </c>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>8060</t>
+          <t>8060191</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>2790</t>
+          <t>2790066</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr">
         <is>
-          <t>3061</t>
+          <t>3060627</t>
         </is>
       </c>
       <c r="AZ24" t="inlineStr">
         <is>
-          <t>3678</t>
+          <t>3678083</t>
         </is>
       </c>
       <c r="BA24" t="inlineStr">
         <is>
-          <t>5822</t>
+          <t>5822496</t>
         </is>
       </c>
       <c r="BB24" t="inlineStr">
         <is>
-          <t>5785</t>
+          <t>5785062</t>
         </is>
       </c>
       <c r="BC24" t="inlineStr">
         <is>
-          <t>4157</t>
+          <t>4156564</t>
         </is>
       </c>
       <c r="BD24" t="inlineStr">
         <is>
-          <t>5349</t>
+          <t>5349296</t>
         </is>
       </c>
       <c r="BE24" t="inlineStr">
         <is>
-          <t>5980</t>
+          <t>5980335</t>
         </is>
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>6550</t>
+          <t>6550196</t>
         </is>
       </c>
       <c r="BG24" t="inlineStr">
         <is>
-          <t>4871</t>
+          <t>4870950</t>
         </is>
       </c>
       <c r="BH24" t="inlineStr">
         <is>
-          <t>7699</t>
+          <t>7698581</t>
         </is>
       </c>
       <c r="BI24" t="inlineStr">
         <is>
-          <t>6210</t>
+          <t>6210282</t>
         </is>
       </c>
       <c r="BJ24" t="inlineStr">
         <is>
-          <t>6750</t>
+          <t>6749946</t>
         </is>
       </c>
       <c r="BK24" t="inlineStr">
         <is>
-          <t>6553</t>
+          <t>6552679</t>
         </is>
       </c>
       <c r="BL24" t="inlineStr">
         <is>
-          <t>12245</t>
+          <t>12245413</t>
         </is>
       </c>
       <c r="BM24" t="inlineStr">
         <is>
-          <t>6823</t>
+          <t>6823198</t>
         </is>
       </c>
       <c r="BN24" t="inlineStr">
         <is>
-          <t>12097</t>
+          <t>12097152</t>
         </is>
       </c>
     </row>
@@ -7625,327 +7625,327 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1693</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>388</t>
+          <t>388364</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>-158</t>
+          <t>-158406</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>183380</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>339620</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>283734</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>308272</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>164690</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>759</t>
+          <t>758723</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>480347</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>631</t>
+          <t>630538</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>476</t>
+          <t>476315</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>185998</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>778</t>
+          <t>777955</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>546</t>
+          <t>545709</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>327362</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>697</t>
+          <t>696900</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>720</t>
+          <t>720111</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>203362</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>317746</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>531</t>
+          <t>530572</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>356044</t>
         </is>
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>370907</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>315938</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>527471</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>420100</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>365054</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>481</t>
+          <t>481332</t>
         </is>
       </c>
       <c r="AD25" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>376930</t>
         </is>
       </c>
       <c r="AE25" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>432939</t>
         </is>
       </c>
       <c r="AF25" t="inlineStr">
         <is>
-          <t>413</t>
+          <t>413396</t>
         </is>
       </c>
       <c r="AG25" t="inlineStr">
         <is>
-          <t>505</t>
+          <t>504946</t>
         </is>
       </c>
       <c r="AH25" t="inlineStr">
         <is>
-          <t>388</t>
+          <t>387694</t>
         </is>
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>467</t>
+          <t>466847</t>
         </is>
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>387360</t>
         </is>
       </c>
       <c r="AK25" t="inlineStr">
         <is>
-          <t>581</t>
+          <t>580758</t>
         </is>
       </c>
       <c r="AL25" t="inlineStr">
         <is>
-          <t>431</t>
+          <t>431336</t>
         </is>
       </c>
       <c r="AM25" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>449506</t>
         </is>
       </c>
       <c r="AN25" t="inlineStr">
         <is>
-          <t>-155</t>
+          <t>-154972</t>
         </is>
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>603</t>
+          <t>602724</t>
         </is>
       </c>
       <c r="AP25" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>419272</t>
         </is>
       </c>
       <c r="AQ25" t="inlineStr">
         <is>
-          <t>605</t>
+          <t>604741</t>
         </is>
       </c>
       <c r="AR25" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>658144</t>
         </is>
       </c>
       <c r="AS25" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>595321</t>
         </is>
       </c>
       <c r="AT25" t="inlineStr">
         <is>
-          <t>855</t>
+          <t>855021</t>
         </is>
       </c>
       <c r="AU25" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>564907</t>
         </is>
       </c>
       <c r="AV25" t="inlineStr">
         <is>
-          <t>1302</t>
+          <t>1301797</t>
         </is>
       </c>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>1582</t>
+          <t>1581804</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>539</t>
+          <t>538687</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>594990</t>
         </is>
       </c>
       <c r="AZ25" t="inlineStr">
         <is>
-          <t>693</t>
+          <t>692882</t>
         </is>
       </c>
       <c r="BA25" t="inlineStr">
         <is>
-          <t>1125</t>
+          <t>1124584</t>
         </is>
       </c>
       <c r="BB25" t="inlineStr">
         <is>
-          <t>1104</t>
+          <t>1104211</t>
         </is>
       </c>
       <c r="BC25" t="inlineStr">
         <is>
-          <t>837</t>
+          <t>836900</t>
         </is>
       </c>
       <c r="BD25" t="inlineStr">
         <is>
-          <t>1075</t>
+          <t>1075213</t>
         </is>
       </c>
       <c r="BE25" t="inlineStr">
         <is>
-          <t>1149</t>
+          <t>1149134</t>
         </is>
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1287</t>
+          <t>1286541</t>
         </is>
       </c>
       <c r="BG25" t="inlineStr">
         <is>
-          <t>976</t>
+          <t>975628</t>
         </is>
       </c>
       <c r="BH25" t="inlineStr">
         <is>
-          <t>1555</t>
+          <t>1555298</t>
         </is>
       </c>
       <c r="BI25" t="inlineStr">
         <is>
-          <t>1208</t>
+          <t>1207758</t>
         </is>
       </c>
       <c r="BJ25" t="inlineStr">
         <is>
-          <t>1341</t>
+          <t>1340587</t>
         </is>
       </c>
       <c r="BK25" t="inlineStr">
         <is>
-          <t>1360</t>
+          <t>1360167</t>
         </is>
       </c>
       <c r="BL25" t="inlineStr">
         <is>
-          <t>2375</t>
+          <t>2375000</t>
         </is>
       </c>
       <c r="BM25" t="inlineStr">
         <is>
-          <t>1319</t>
+          <t>1319472</t>
         </is>
       </c>
       <c r="BN25" t="inlineStr">
         <is>
-          <t>2345</t>
+          <t>2345147</t>
         </is>
       </c>
     </row>
@@ -7982,7 +7982,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>-19</t>
+          <t>-18704</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -8043,83 +8043,83 @@
       <c r="AI26" t="inlineStr"/>
       <c r="AJ26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>240</t>
         </is>
       </c>
       <c r="AK26" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>6398</t>
         </is>
       </c>
       <c r="AL26" t="inlineStr">
         <is>
-          <t>-6</t>
+          <t>-5741</t>
         </is>
       </c>
       <c r="AM26" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7700</t>
         </is>
       </c>
       <c r="AN26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-230</t>
         </is>
       </c>
       <c r="AO26" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>11133</t>
         </is>
       </c>
       <c r="AP26" t="inlineStr">
         <is>
-          <t>-6</t>
+          <t>-5585</t>
         </is>
       </c>
       <c r="AQ26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-465</t>
         </is>
       </c>
       <c r="AR26" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>12096</t>
         </is>
       </c>
       <c r="AS26" t="inlineStr">
         <is>
-          <t>-26</t>
+          <t>-25611</t>
         </is>
       </c>
       <c r="AT26" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>20314</t>
         </is>
       </c>
       <c r="AU26" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>-2532</t>
         </is>
       </c>
       <c r="AV26" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>20124</t>
         </is>
       </c>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>7236</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12818</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
       <c r="AZ26" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>-504</t>
         </is>
       </c>
       <c r="BA26" t="inlineStr"/>
@@ -8127,7 +8127,7 @@
       <c r="BC26" t="inlineStr"/>
       <c r="BD26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>451</t>
         </is>
       </c>
       <c r="BE26" t="inlineStr"/>
@@ -8135,7 +8135,7 @@
       <c r="BG26" t="inlineStr"/>
       <c r="BH26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>59</t>
         </is>
       </c>
       <c r="BI26" t="inlineStr"/>
@@ -8143,12 +8143,12 @@
       <c r="BK26" t="inlineStr"/>
       <c r="BL26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-201</t>
         </is>
       </c>
       <c r="BM26" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4339</t>
         </is>
       </c>
       <c r="BN26" t="inlineStr"/>
@@ -8161,327 +8161,327 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1693</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>388</t>
+          <t>388364</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>-158</t>
+          <t>-158406</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>183380</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>339620</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>265030</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>308272</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>164690</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>759</t>
+          <t>758723</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>480347</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>631</t>
+          <t>630538</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>476</t>
+          <t>476315</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>185998</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>778</t>
+          <t>777955</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>546</t>
+          <t>545709</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>327362</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>697</t>
+          <t>696900</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>720</t>
+          <t>720111</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>203362</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>317746</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>531</t>
+          <t>530572</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>356044</t>
         </is>
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>370907</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>315938</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>527471</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>420100</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>365054</t>
         </is>
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>481</t>
+          <t>481332</t>
         </is>
       </c>
       <c r="AD27" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>376930</t>
         </is>
       </c>
       <c r="AE27" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>432939</t>
         </is>
       </c>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>413</t>
+          <t>413396</t>
         </is>
       </c>
       <c r="AG27" t="inlineStr">
         <is>
-          <t>505</t>
+          <t>504946</t>
         </is>
       </c>
       <c r="AH27" t="inlineStr">
         <is>
-          <t>388</t>
+          <t>387694</t>
         </is>
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>467</t>
+          <t>466847</t>
         </is>
       </c>
       <c r="AJ27" t="inlineStr">
         <is>
-          <t>388</t>
+          <t>387600</t>
         </is>
       </c>
       <c r="AK27" t="inlineStr">
         <is>
-          <t>587</t>
+          <t>587156</t>
         </is>
       </c>
       <c r="AL27" t="inlineStr">
         <is>
-          <t>426</t>
+          <t>425595</t>
         </is>
       </c>
       <c r="AM27" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>457206</t>
         </is>
       </c>
       <c r="AN27" t="inlineStr">
         <is>
-          <t>-155</t>
+          <t>-155202</t>
         </is>
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>613857</t>
         </is>
       </c>
       <c r="AP27" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>413687</t>
         </is>
       </c>
       <c r="AQ27" t="inlineStr">
         <is>
-          <t>604</t>
+          <t>604276</t>
         </is>
       </c>
       <c r="AR27" t="inlineStr">
         <is>
-          <t>670</t>
+          <t>670240</t>
         </is>
       </c>
       <c r="AS27" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>569710</t>
         </is>
       </c>
       <c r="AT27" t="inlineStr">
         <is>
-          <t>875</t>
+          <t>875335</t>
         </is>
       </c>
       <c r="AU27" t="inlineStr">
         <is>
-          <t>562</t>
+          <t>562375</t>
         </is>
       </c>
       <c r="AV27" t="inlineStr">
         <is>
-          <t>1322</t>
+          <t>1321921</t>
         </is>
       </c>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>1589</t>
+          <t>1589040</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>552</t>
+          <t>551505</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>594990</t>
         </is>
       </c>
       <c r="AZ27" t="inlineStr">
         <is>
-          <t>692</t>
+          <t>692378</t>
         </is>
       </c>
       <c r="BA27" t="inlineStr">
         <is>
-          <t>1125</t>
+          <t>1124584</t>
         </is>
       </c>
       <c r="BB27" t="inlineStr">
         <is>
-          <t>1104</t>
+          <t>1104211</t>
         </is>
       </c>
       <c r="BC27" t="inlineStr">
         <is>
-          <t>837</t>
+          <t>836900</t>
         </is>
       </c>
       <c r="BD27" t="inlineStr">
         <is>
-          <t>1076</t>
+          <t>1075664</t>
         </is>
       </c>
       <c r="BE27" t="inlineStr">
         <is>
-          <t>1149</t>
+          <t>1149134</t>
         </is>
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1287</t>
+          <t>1286541</t>
         </is>
       </c>
       <c r="BG27" t="inlineStr">
         <is>
-          <t>976</t>
+          <t>975628</t>
         </is>
       </c>
       <c r="BH27" t="inlineStr">
         <is>
-          <t>1555</t>
+          <t>1555357</t>
         </is>
       </c>
       <c r="BI27" t="inlineStr">
         <is>
-          <t>1208</t>
+          <t>1207758</t>
         </is>
       </c>
       <c r="BJ27" t="inlineStr">
         <is>
-          <t>1341</t>
+          <t>1340587</t>
         </is>
       </c>
       <c r="BK27" t="inlineStr">
         <is>
-          <t>1360</t>
+          <t>1360167</t>
         </is>
       </c>
       <c r="BL27" t="inlineStr">
         <is>
-          <t>2375</t>
+          <t>2374799</t>
         </is>
       </c>
       <c r="BM27" t="inlineStr">
         <is>
-          <t>1324</t>
+          <t>1323811</t>
         </is>
       </c>
       <c r="BN27" t="inlineStr">
         <is>
-          <t>2345</t>
+          <t>2345147</t>
         </is>
       </c>
     </row>
@@ -8493,327 +8493,327 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1205</t>
+          <t>1204597</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>450874</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>755</t>
+          <t>754677</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>987733</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>632</t>
+          <t>632404</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>1220</t>
+          <t>1219745</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>570035</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>997</t>
+          <t>997142</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>1993</t>
+          <t>1993205</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>1582</t>
+          <t>1582200</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>1779</t>
+          <t>1778513</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>1540</t>
+          <t>1540306</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>613986</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2712</t>
+          <t>2711883</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>1351</t>
+          <t>1350710</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>1042</t>
+          <t>1042456</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>2129</t>
+          <t>2128898</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>2190</t>
+          <t>2190072</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>502393</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>1140</t>
+          <t>1139959</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>1884</t>
+          <t>1884392</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>1251</t>
+          <t>1251415</t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>1451</t>
+          <t>1451442</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>1248</t>
+          <t>1248034</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>1787</t>
+          <t>1787140</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>1427</t>
+          <t>1426797</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>1255</t>
+          <t>1254907</t>
         </is>
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>1924</t>
+          <t>1923631</t>
         </is>
       </c>
       <c r="AD28" t="inlineStr">
         <is>
-          <t>1491</t>
+          <t>1491051</t>
         </is>
       </c>
       <c r="AE28" t="inlineStr">
         <is>
-          <t>1779</t>
+          <t>1779313</t>
         </is>
       </c>
       <c r="AF28" t="inlineStr">
         <is>
-          <t>1631</t>
+          <t>1631427</t>
         </is>
       </c>
       <c r="AG28" t="inlineStr">
         <is>
-          <t>2039</t>
+          <t>2039127</t>
         </is>
       </c>
       <c r="AH28" t="inlineStr">
         <is>
-          <t>1882</t>
+          <t>1881862</t>
         </is>
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>1952</t>
+          <t>1951708</t>
         </is>
       </c>
       <c r="AJ28" t="inlineStr">
         <is>
-          <t>1586</t>
+          <t>1586202</t>
         </is>
       </c>
       <c r="AK28" t="inlineStr">
         <is>
-          <t>2441</t>
+          <t>2440537</t>
         </is>
       </c>
       <c r="AL28" t="inlineStr">
         <is>
-          <t>1812</t>
+          <t>1812339</t>
         </is>
       </c>
       <c r="AM28" t="inlineStr">
         <is>
-          <t>1873</t>
+          <t>1872915</t>
         </is>
       </c>
       <c r="AN28" t="inlineStr">
         <is>
-          <t>-698</t>
+          <t>-698219</t>
         </is>
       </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>2539</t>
+          <t>2539084</t>
         </is>
       </c>
       <c r="AP28" t="inlineStr">
         <is>
-          <t>1768</t>
+          <t>1768276</t>
         </is>
       </c>
       <c r="AQ28" t="inlineStr">
         <is>
-          <t>2517</t>
+          <t>2517146</t>
         </is>
       </c>
       <c r="AR28" t="inlineStr">
         <is>
-          <t>2654</t>
+          <t>2653766</t>
         </is>
       </c>
       <c r="AS28" t="inlineStr">
         <is>
-          <t>2405</t>
+          <t>2404717</t>
         </is>
       </c>
       <c r="AT28" t="inlineStr">
         <is>
-          <t>3610</t>
+          <t>3610243</t>
         </is>
       </c>
       <c r="AU28" t="inlineStr">
         <is>
-          <t>2342</t>
+          <t>2341649</t>
         </is>
       </c>
       <c r="AV28" t="inlineStr">
         <is>
-          <t>5384</t>
+          <t>5384390</t>
         </is>
       </c>
       <c r="AW28" t="inlineStr">
         <is>
-          <t>6471</t>
+          <t>6471151</t>
         </is>
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>2239</t>
+          <t>2238561</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr">
         <is>
-          <t>2466</t>
+          <t>2465637</t>
         </is>
       </c>
       <c r="AZ28" t="inlineStr">
         <is>
-          <t>2986</t>
+          <t>2985705</t>
         </is>
       </c>
       <c r="BA28" t="inlineStr">
         <is>
-          <t>4698</t>
+          <t>4697912</t>
         </is>
       </c>
       <c r="BB28" t="inlineStr">
         <is>
-          <t>4681</t>
+          <t>4680851</t>
         </is>
       </c>
       <c r="BC28" t="inlineStr">
         <is>
-          <t>3320</t>
+          <t>3319664</t>
         </is>
       </c>
       <c r="BD28" t="inlineStr">
         <is>
-          <t>4274</t>
+          <t>4273632</t>
         </is>
       </c>
       <c r="BE28" t="inlineStr">
         <is>
-          <t>4831</t>
+          <t>4831201</t>
         </is>
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>5264</t>
+          <t>5263655</t>
         </is>
       </c>
       <c r="BG28" t="inlineStr">
         <is>
-          <t>3895</t>
+          <t>3895322</t>
         </is>
       </c>
       <c r="BH28" t="inlineStr">
         <is>
-          <t>6143</t>
+          <t>6143224</t>
         </is>
       </c>
       <c r="BI28" t="inlineStr">
         <is>
-          <t>5003</t>
+          <t>5002524</t>
         </is>
       </c>
       <c r="BJ28" t="inlineStr">
         <is>
-          <t>5409</t>
+          <t>5409359</t>
         </is>
       </c>
       <c r="BK28" t="inlineStr">
         <is>
-          <t>5193</t>
+          <t>5192512</t>
         </is>
       </c>
       <c r="BL28" t="inlineStr">
         <is>
-          <t>9871</t>
+          <t>9870614</t>
         </is>
       </c>
       <c r="BM28" t="inlineStr">
         <is>
-          <t>5499</t>
+          <t>5499387</t>
         </is>
       </c>
       <c r="BN28" t="inlineStr">
         <is>
-          <t>9752</t>
+          <t>9752005</t>
         </is>
       </c>
     </row>
@@ -8830,322 +8830,322 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>12255</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2399</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3507</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>-1468</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>-6702</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9926</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1235</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3495</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2869</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7990</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5584</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4917</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3766</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3867</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2904</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>5002</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3343</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4280</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4332</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2205</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3706</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4851</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2946</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5667</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3685</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6659</t>
         </is>
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4156</t>
         </is>
       </c>
       <c r="AD29" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2708</t>
         </is>
       </c>
       <c r="AE29" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4367</t>
         </is>
       </c>
       <c r="AF29" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8753</t>
         </is>
       </c>
       <c r="AG29" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>7471</t>
         </is>
       </c>
       <c r="AH29" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>9047</t>
         </is>
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1397</t>
         </is>
       </c>
       <c r="AJ29" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8627</t>
         </is>
       </c>
       <c r="AK29" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11958</t>
         </is>
       </c>
       <c r="AL29" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4226</t>
         </is>
       </c>
       <c r="AM29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1427</t>
         </is>
       </c>
       <c r="AN29" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>-11070</t>
         </is>
       </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10883</t>
         </is>
       </c>
       <c r="AP29" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1612</t>
         </is>
       </c>
       <c r="AQ29" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>6003</t>
         </is>
       </c>
       <c r="AR29" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>-1429</t>
         </is>
       </c>
       <c r="AS29" t="inlineStr">
         <is>
-          <t>-10</t>
+          <t>-9749</t>
         </is>
       </c>
       <c r="AT29" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>38593</t>
         </is>
       </c>
       <c r="AU29" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4997</t>
         </is>
       </c>
       <c r="AV29" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>28051</t>
         </is>
       </c>
       <c r="AW29" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9618</t>
         </is>
       </c>
       <c r="AX29" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>32135</t>
         </is>
       </c>
       <c r="AY29" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5865</t>
         </is>
       </c>
       <c r="AZ29" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>64889</t>
         </is>
       </c>
       <c r="BA29" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>34005</t>
         </is>
       </c>
       <c r="BB29" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>35438</t>
         </is>
       </c>
       <c r="BC29" t="inlineStr">
         <is>
-          <t>-19</t>
+          <t>-18664</t>
         </is>
       </c>
       <c r="BD29" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>13221</t>
         </is>
       </c>
       <c r="BE29" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>24824</t>
         </is>
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>60349</t>
         </is>
       </c>
       <c r="BG29" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>32247</t>
         </is>
       </c>
       <c r="BH29" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23749</t>
         </is>
       </c>
       <c r="BI29" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>43714</t>
         </is>
       </c>
       <c r="BJ29" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>44064</t>
         </is>
       </c>
       <c r="BK29" t="inlineStr">
         <is>
-          <t>-33</t>
+          <t>-33347</t>
         </is>
       </c>
       <c r="BL29" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>79064</t>
         </is>
       </c>
       <c r="BM29" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>80512</t>
         </is>
       </c>
       <c r="BN29" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>82120</t>
         </is>
       </c>
     </row>
@@ -9157,327 +9157,327 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1205</t>
+          <t>1204597</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>438619</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>752</t>
+          <t>752278</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>984</t>
+          <t>984226</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>634</t>
+          <t>633872</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>1226</t>
+          <t>1226447</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>560110</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>996</t>
+          <t>995906</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>1989710</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>1579</t>
+          <t>1579331</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>1771</t>
+          <t>1770522</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>1535</t>
+          <t>1534722</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>609</t>
+          <t>609069</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2708</t>
+          <t>2708116</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>1347</t>
+          <t>1346843</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>1040</t>
+          <t>1039552</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>2124</t>
+          <t>2123897</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>2187</t>
+          <t>2186729</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>498</t>
+          <t>498113</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>1136</t>
+          <t>1135627</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>1882</t>
+          <t>1882187</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>1248</t>
+          <t>1247709</t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>1447</t>
+          <t>1446590</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>1245</t>
+          <t>1245088</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>1781</t>
+          <t>1781473</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>1423</t>
+          <t>1423112</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>1248</t>
+          <t>1248248</t>
         </is>
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>1919</t>
+          <t>1919475</t>
         </is>
       </c>
       <c r="AD30" t="inlineStr">
         <is>
-          <t>1488</t>
+          <t>1488343</t>
         </is>
       </c>
       <c r="AE30" t="inlineStr">
         <is>
-          <t>1775</t>
+          <t>1774946</t>
         </is>
       </c>
       <c r="AF30" t="inlineStr">
         <is>
-          <t>1623</t>
+          <t>1622674</t>
         </is>
       </c>
       <c r="AG30" t="inlineStr">
         <is>
-          <t>2032</t>
+          <t>2031656</t>
         </is>
       </c>
       <c r="AH30" t="inlineStr">
         <is>
-          <t>1873</t>
+          <t>1872815</t>
         </is>
       </c>
       <c r="AI30" t="inlineStr">
         <is>
-          <t>1950</t>
+          <t>1950311</t>
         </is>
       </c>
       <c r="AJ30" t="inlineStr">
         <is>
-          <t>1578</t>
+          <t>1577575</t>
         </is>
       </c>
       <c r="AK30" t="inlineStr">
         <is>
-          <t>2429</t>
+          <t>2428579</t>
         </is>
       </c>
       <c r="AL30" t="inlineStr">
         <is>
-          <t>1808</t>
+          <t>1808113</t>
         </is>
       </c>
       <c r="AM30" t="inlineStr">
         <is>
-          <t>1871</t>
+          <t>1871488</t>
         </is>
       </c>
       <c r="AN30" t="inlineStr">
         <is>
-          <t>-687</t>
+          <t>-687149</t>
         </is>
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>2528</t>
+          <t>2528201</t>
         </is>
       </c>
       <c r="AP30" t="inlineStr">
         <is>
-          <t>1767</t>
+          <t>1766664</t>
         </is>
       </c>
       <c r="AQ30" t="inlineStr">
         <is>
-          <t>2511</t>
+          <t>2511143</t>
         </is>
       </c>
       <c r="AR30" t="inlineStr">
         <is>
-          <t>2655</t>
+          <t>2655195</t>
         </is>
       </c>
       <c r="AS30" t="inlineStr">
         <is>
-          <t>2414</t>
+          <t>2414466</t>
         </is>
       </c>
       <c r="AT30" t="inlineStr">
         <is>
-          <t>3572</t>
+          <t>3571650</t>
         </is>
       </c>
       <c r="AU30" t="inlineStr">
         <is>
-          <t>2337</t>
+          <t>2336652</t>
         </is>
       </c>
       <c r="AV30" t="inlineStr">
         <is>
-          <t>5356</t>
+          <t>5356339</t>
         </is>
       </c>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>6462</t>
+          <t>6461533</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>2206</t>
+          <t>2206426</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr">
         <is>
-          <t>2460</t>
+          <t>2459772</t>
         </is>
       </c>
       <c r="AZ30" t="inlineStr">
         <is>
-          <t>2921</t>
+          <t>2920816</t>
         </is>
       </c>
       <c r="BA30" t="inlineStr">
         <is>
-          <t>4664</t>
+          <t>4663907</t>
         </is>
       </c>
       <c r="BB30" t="inlineStr">
         <is>
-          <t>4645</t>
+          <t>4645413</t>
         </is>
       </c>
       <c r="BC30" t="inlineStr">
         <is>
-          <t>3338</t>
+          <t>3338328</t>
         </is>
       </c>
       <c r="BD30" t="inlineStr">
         <is>
-          <t>4260</t>
+          <t>4260411</t>
         </is>
       </c>
       <c r="BE30" t="inlineStr">
         <is>
-          <t>4806</t>
+          <t>4806377</t>
         </is>
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>5203</t>
+          <t>5203306</t>
         </is>
       </c>
       <c r="BG30" t="inlineStr">
         <is>
-          <t>3863</t>
+          <t>3863075</t>
         </is>
       </c>
       <c r="BH30" t="inlineStr">
         <is>
-          <t>6119</t>
+          <t>6119475</t>
         </is>
       </c>
       <c r="BI30" t="inlineStr">
         <is>
-          <t>4959</t>
+          <t>4958810</t>
         </is>
       </c>
       <c r="BJ30" t="inlineStr">
         <is>
-          <t>5365</t>
+          <t>5365295</t>
         </is>
       </c>
       <c r="BK30" t="inlineStr">
         <is>
-          <t>5226</t>
+          <t>5225859</t>
         </is>
       </c>
       <c r="BL30" t="inlineStr">
         <is>
-          <t>9792</t>
+          <t>9791550</t>
         </is>
       </c>
       <c r="BM30" t="inlineStr">
         <is>
-          <t>5419</t>
+          <t>5418875</t>
         </is>
       </c>
       <c r="BN30" t="inlineStr">
         <is>
-          <t>9670</t>
+          <t>9669885</t>
         </is>
       </c>
     </row>
